--- a/exampleProblems/menthol_CDCl3/menthol_CDCl3.xlsx
+++ b/exampleProblems/menthol_CDCl3/menthol_CDCl3.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="molecule" sheetId="1" r:id="rId1"/>
     <sheet name="H1_1D" sheetId="2" r:id="rId2"/>
-    <sheet name="H1_pureshift" sheetId="3" r:id="rId3"/>
-    <sheet name="C13_1D" sheetId="4" r:id="rId4"/>
-    <sheet name="COSY" sheetId="5" r:id="rId5"/>
-    <sheet name="HSQC" sheetId="6" r:id="rId6"/>
-    <sheet name="HMBC" sheetId="7" r:id="rId7"/>
+    <sheet name="C13_1D" sheetId="3" r:id="rId3"/>
+    <sheet name="COSY" sheetId="4" r:id="rId4"/>
+    <sheet name="HSQC" sheetId="5" r:id="rId5"/>
+    <sheet name="HMBC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>smiles</t>
   </si>
@@ -29,6 +28,69 @@
   </si>
   <si>
     <t>ppm</t>
+  </si>
+  <si>
+    <t>Integral</t>
+  </si>
+  <si>
+    <t>H's</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>J's</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>heptd</t>
+  </si>
+  <si>
+    <t>dtd</t>
+  </si>
+  <si>
+    <t>ddq</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ddt</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>4.35, 10.5</t>
+  </si>
+  <si>
+    <t>1.88, 4.17</t>
+  </si>
+  <si>
+    <t>2.77, 6.98</t>
+  </si>
+  <si>
+    <t>2.08, 3.9, 12.3</t>
+  </si>
+  <si>
+    <t>2.9, 13.3, 36.9</t>
+  </si>
+  <si>
+    <t>3.15, 10.1, 13.2</t>
+  </si>
+  <si>
+    <t>3.56, 11.6, 12.9</t>
+  </si>
+  <si>
+    <t>7.22</t>
   </si>
   <si>
     <t>Intensity</t>
@@ -424,13 +486,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -439,6 +501,206 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.261234873010315</v>
+      </c>
+      <c r="C2">
+        <v>1.016678020556872</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.941423249842074</v>
+      </c>
+      <c r="C3">
+        <v>0.9981795895695205</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.11101535336931</v>
+      </c>
+      <c r="C4">
+        <v>1.00745855492204</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.858571924522433</v>
+      </c>
+      <c r="C5">
+        <v>0.9351785302881365</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.522379543733942</v>
+      </c>
+      <c r="C6">
+        <v>1.999049704789259</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.295270255624172</v>
+      </c>
+      <c r="C7">
+        <v>0.7874049433813467</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.004117802142161</v>
+      </c>
+      <c r="C8">
+        <v>0.948374236143529</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.8490417558306967</v>
+      </c>
+      <c r="C9">
+        <v>8.215744988315292</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.7412999859978294</v>
+      </c>
+      <c r="C10">
+        <v>1.038749497753711</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.6908204452587272</v>
+      </c>
+      <c r="C11">
+        <v>3.053181934280298</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -447,30 +709,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -483,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -634,7 +872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -644,16 +882,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -695,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -705,16 +943,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -943,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -953,16 +1191,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
